--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.042659026914935</v>
+        <v>-1.093113453494325</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.004827623905114</v>
+        <v>-1.128191672029953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.692839384916684</v>
+        <v>-3.724056244797756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.354956944077751</v>
+        <v>-3.506295981851815</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.44823142821039</v>
+        <v>-3.417561530802109</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.448671790844523</v>
+        <v>-5.713422090260439</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.639549423901274</v>
+        <v>-1.628770935561014</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.659517756924208</v>
+        <v>-1.790035233009363</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.018398463627652</v>
+        <v>-3.987917274719007</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.43352925017801</v>
+        <v>3.164542550459108</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.477055149940478</v>
+        <v>3.616551796120388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5152186271354384</v>
+        <v>0.2284630806897448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.367787440036505</v>
+        <v>1.208789778379372</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.246855522172565</v>
+        <v>0.9323521816268486</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.527528408352356</v>
+        <v>-1.688779487956086</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.637243983058063</v>
+        <v>1.529903153871616</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.583851121521682</v>
+        <v>1.590534996496508</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.319413809758372</v>
+        <v>-1.281595229686107</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2458994949997822</v>
+        <v>-0.2641825607708431</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2437343955302075</v>
+        <v>-0.2623197852314539</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8243039501873202</v>
+        <v>-0.8191035066280415</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4899112911481743</v>
+        <v>-0.530334157336703</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5366385575409491</v>
+        <v>-0.5198329986772285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8057391925797314</v>
+        <v>-0.8246965284659781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.311745777789981</v>
+        <v>-0.3185130547131375</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3267811264558202</v>
+        <v>-0.3362934022933148</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7622764659264298</v>
+        <v>-0.7694291458900702</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.522926361034106</v>
+        <v>1.360109821794601</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.374867139301737</v>
+        <v>1.483878081130414</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.390347775272591</v>
+        <v>0.2333872572778561</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3387705815685416</v>
+        <v>0.2931456173278578</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3177743060309287</v>
+        <v>0.2201789900274564</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3161122494719928</v>
+        <v>-0.3885171937380265</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.470996293274798</v>
+        <v>0.4341952976883321</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.444448926383746</v>
+        <v>0.4325400685205658</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2954438672852053</v>
+        <v>-0.3266655262457723</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.521428266547988</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.147670098268655</v>
+        <v>-4.147670098268656</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.8937984783051474</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.442027968163197</v>
+        <v>-3.442943452142075</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.222794460694371</v>
+        <v>-4.149897486291827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.193509368688979</v>
+        <v>-5.032732552379147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.752990061178138</v>
+        <v>-2.736387023178116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.780368534578665</v>
+        <v>-4.690248955586442</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.04742070075315</v>
+        <v>-6.327485172499187</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.432135169159102</v>
+        <v>-2.529691501214922</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.834685357334946</v>
+        <v>-3.794957959439432</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.988071524786673</v>
+        <v>-5.242811593053422</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6038714996040432</v>
+        <v>0.5578437785535432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1963257089962133</v>
+        <v>-0.3054358990438473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.462317071345944</v>
+        <v>-1.367493259548315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.515641517679281</v>
+        <v>1.829743642056707</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3876140252744355</v>
+        <v>-0.4023256046864399</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.251442752426756</v>
+        <v>-2.423609929518601</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5856381807540839</v>
+        <v>0.5635678174052673</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.061222308482543</v>
+        <v>-0.9414169562981424</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.297860428049913</v>
+        <v>-2.450111912492615</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3853176955573003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.6338354754723233</v>
+        <v>-0.6338354754723234</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1442100718281887</v>
@@ -983,7 +983,7 @@
         <v>-0.3823697505388708</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.5943322856277318</v>
+        <v>-0.5943322856277317</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4975779110803465</v>
+        <v>-0.4819461577884148</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6119466378264435</v>
+        <v>-0.5974730440457922</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7320201664137685</v>
+        <v>-0.7143444273944028</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3556810164548251</v>
+        <v>-0.3588346496954894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5986376244442821</v>
+        <v>-0.5921846886672212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7683053551209328</v>
+        <v>-0.7713703972412328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3493336176337244</v>
+        <v>-0.3485960634882533</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5519677028929125</v>
+        <v>-0.5447552411542619</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7087883540193641</v>
+        <v>-0.7124418714334325</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1370591821802348</v>
+        <v>0.1275498388618523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02590269737437881</v>
+        <v>-0.03236879285867255</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2843383591554981</v>
+        <v>-0.267198408554617</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2841043770152182</v>
+        <v>0.3302205314542393</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08080744644456755</v>
+        <v>-0.06114801259127303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4225097053100852</v>
+        <v>-0.439993800123842</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1055618539190753</v>
+        <v>0.1055285486672878</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.189455323049757</v>
+        <v>-0.1743520393614086</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4278520500643966</v>
+        <v>-0.4407789745459685</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.8870105001339286</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.3266158361865578</v>
+        <v>-0.326615836186557</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.145091780584709</v>
@@ -1092,7 +1092,7 @@
         <v>1.657024787525423</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.1888125323980083</v>
+        <v>-0.188812532398009</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1991131200673298</v>
+        <v>0.009535414007089254</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1047603635247764</v>
+        <v>0.02055445803150488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.074511613944214</v>
+        <v>-2.207256714991163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8150938333961436</v>
+        <v>1.016489499697357</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.678616307606058</v>
+        <v>-1.775407709405584</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.859423753820289</v>
+        <v>-3.003617126489483</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.275395172058265</v>
+        <v>1.382095981429309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.02907376199688546</v>
+        <v>-0.1820815492344464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.7326010421617</v>
+        <v>-1.740370437572867</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.880990271990942</v>
+        <v>4.98453747979715</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.909873455383839</v>
+        <v>4.983390387701374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.971136086926492</v>
+        <v>1.758366792665058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.447057609573401</v>
+        <v>6.556348846706427</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.410743567093725</v>
+        <v>3.435332044674902</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.15305384578186</v>
+        <v>2.292710384799926</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.004101343647016</v>
+        <v>4.966466699583532</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.313983072913411</v>
+        <v>3.350204672600223</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.479701985194801</v>
+        <v>1.552795043778959</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1582904076790662</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05828584200142298</v>
+        <v>-0.05828584200142286</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6835356369902329</v>
@@ -1197,7 +1197,7 @@
         <v>0.3601279621287318</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04103539852195279</v>
+        <v>-0.04103539852195293</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02966111561567665</v>
+        <v>-0.03705619021182087</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05601014210562502</v>
+        <v>-0.03038019610947659</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4529302832476675</v>
+        <v>-0.4774434242644817</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1153862398310142</v>
+        <v>0.1040971402286909</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2432084825153336</v>
+        <v>-0.2504678146952284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4215672666007586</v>
+        <v>-0.434149771144785</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2280419616077809</v>
+        <v>0.2424661993224375</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01629796439549596</v>
+        <v>-0.03398026294622732</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3179015668726306</v>
+        <v>-0.3233352911824168</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.879875309836751</v>
+        <v>1.853171556434176</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.758006516985653</v>
+        <v>1.859826170265049</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7700595300514479</v>
+        <v>0.6768287511145761</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.48205916928778</v>
+        <v>1.441108533802276</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.812355194038709</v>
+        <v>0.8277021930596367</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5040887524374075</v>
+        <v>0.5605154247072246</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.319271739893314</v>
+        <v>1.317142281024982</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.880307534267564</v>
+        <v>0.8596010890101367</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4057208238969087</v>
+        <v>0.4199727631405837</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.252615747015931</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.567756821269891</v>
+        <v>-2.56775682126989</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.7462196463289286</v>
@@ -1297,7 +1297,7 @@
         <v>-2.188937665459123</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.562236187002297</v>
+        <v>-2.562236187002296</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.132495885410889</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.315309482918914</v>
+        <v>-3.572479258783521</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.27820946837535</v>
+        <v>-4.117919570809446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.457816849158001</v>
+        <v>-4.412015005437095</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.951208169489373</v>
+        <v>-2.752651565452905</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.196839623432988</v>
+        <v>-4.059630135431935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.375777812672445</v>
+        <v>-4.5184217352117</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.539168369679705</v>
+        <v>-2.61600046651348</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.554400739007868</v>
+        <v>-3.50320762203966</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.836493998959937</v>
+        <v>-3.914779071214616</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5038720491633691</v>
+        <v>0.369337924643695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5018743404827197</v>
+        <v>-0.4475691134876003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.5371806486258687</v>
+        <v>-0.713986311018162</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.12001007205221</v>
+        <v>1.45959078914251</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2364755378685562</v>
+        <v>-0.2743429264566581</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.7863998147859983</v>
+        <v>-0.8365691331968047</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2563610539290024</v>
+        <v>0.2695322043091801</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.7553695681803437</v>
+        <v>-1.005856486069773</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.270508476713034</v>
+        <v>-1.236556780448631</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.402043237281426</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4582891096017496</v>
+        <v>-0.4582891096017495</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1224813458004085</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3592829972483186</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4205546423046277</v>
+        <v>-0.4205546423046276</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1932791527119256</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5027670372294987</v>
+        <v>-0.5337899277948838</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6333661943056959</v>
+        <v>-0.6245356142702265</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6550767392548676</v>
+        <v>-0.6563552205451351</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.402435744111033</v>
+        <v>-0.3887079859797816</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5814797689100845</v>
+        <v>-0.5634176632117835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6036352882274612</v>
+        <v>-0.6110965177826301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3925401454094056</v>
+        <v>-0.398112032020042</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.53213419466075</v>
+        <v>-0.5421276192664948</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5877680212944919</v>
+        <v>-0.5774440896572463</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1152340601768371</v>
+        <v>0.09117871360313837</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1058824021931821</v>
+        <v>-0.09348822897005168</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1131159078820586</v>
+        <v>-0.1376870495972113</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2374695558612262</v>
+        <v>0.2940763035784983</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03660836106520543</v>
+        <v>-0.03515663978189671</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1482090619908812</v>
+        <v>-0.1635674075831554</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05035588363553668</v>
+        <v>0.04488486896918806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1236260899673414</v>
+        <v>-0.188344994521332</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2457230844712122</v>
+        <v>-0.2170256388679005</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.974147961122064</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.387847548477026</v>
+        <v>-2.387847548477025</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.152086544948398</v>
+        <v>-1.174134047219034</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.599877398886741</v>
+        <v>-1.62772802978455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.136190778461394</v>
+        <v>-3.111829336458349</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8649168910686577</v>
+        <v>-0.8940355971363969</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.553382748435998</v>
+        <v>-2.464714177424412</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.733198063722301</v>
+        <v>-3.785813164797935</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6354106901543876</v>
+        <v>-0.7455479748931201</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.758088871882184</v>
+        <v>-1.785545923209208</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.130104086760466</v>
+        <v>-3.150064793198142</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9991512091954539</v>
+        <v>0.9531750767587033</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.579300996862592</v>
+        <v>0.4711147578279776</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.084755065515171</v>
+        <v>-1.08190573163197</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.445451446554136</v>
+        <v>1.456265587856522</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3549384211915388</v>
+        <v>-0.2850980770329117</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.70732448869184</v>
+        <v>-1.696981927787745</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9308869945890278</v>
+        <v>0.7986973465195368</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2194196219123327</v>
+        <v>-0.2142728501431424</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.721146319220576</v>
+        <v>-1.6558936151274</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1072116919751956</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.428926675449538</v>
+        <v>-0.4289266754495381</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.03923626649269896</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1803975213432702</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.442193379530036</v>
+        <v>-0.4421933795300358</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2141799541780419</v>
+        <v>-0.2213651871140735</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2953380337595596</v>
+        <v>-0.2977351770551427</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.57686712019974</v>
+        <v>-0.5642775901144955</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1356557776157878</v>
+        <v>-0.1346877193731174</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3885353551475533</v>
+        <v>-0.3701823395598004</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5635276202284777</v>
+        <v>-0.5663622294607144</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1126916225661679</v>
+        <v>-0.1263975971424858</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2984198024764916</v>
+        <v>-0.308801790032928</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.532062565167061</v>
+        <v>-0.5376297423999018</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2439287708677231</v>
+        <v>0.2301029125770239</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1363233879599607</v>
+        <v>0.1159218328313917</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2490087668467935</v>
+        <v>-0.2395874668237106</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2761736783833171</v>
+        <v>0.273244182702031</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.06429583117660995</v>
+        <v>-0.054478932931148</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3159674658069695</v>
+        <v>-0.3111092365185829</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1871365347924898</v>
+        <v>0.1594462426476228</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.04001067721239843</v>
+        <v>-0.04174789063850145</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3374900145231505</v>
+        <v>-0.3346990041597539</v>
       </c>
     </row>
     <row r="34">
